--- a/realme/SEPTEMBER/All Details/09.09.2021/realme Bank Statement August-2021.xlsx
+++ b/realme/SEPTEMBER/All Details/09.09.2021/realme Bank Statement August-2021.xlsx
@@ -2418,18 +2418,72 @@
     <xf numFmtId="2" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2442,39 +2496,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,27 +2588,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="41" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="40" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3125,21 +3125,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -3875,67 +3875,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
     </row>
     <row r="2" spans="1:24" s="125" customFormat="1" ht="18">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
     </row>
     <row r="3" spans="1:24" s="126" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="246"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="247"/>
       <c r="S3" s="50"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -3944,52 +3944,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="128" customFormat="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="236" t="s">
+      <c r="H4" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="236" t="s">
+      <c r="K4" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="236" t="s">
+      <c r="L4" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="236" t="s">
+      <c r="M4" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="240" t="s">
+      <c r="N4" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="238" t="s">
+      <c r="O4" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="254" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="127" t="s">
@@ -4002,22 +4002,22 @@
       <c r="W4" s="130"/>
     </row>
     <row r="5" spans="1:24" s="128" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="248"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="252"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="255"/>
       <c r="Q5" s="132" t="s">
         <v>43</v>
       </c>
@@ -6985,6 +6985,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7001,9 +7004,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7042,14 +7042,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
       <c r="L1" s="40"/>
       <c r="M1" s="182"/>
       <c r="N1" s="182"/>
@@ -7102,14 +7102,14 @@
       <c r="BI1" s="182"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
       <c r="L2" s="40"/>
       <c r="M2" s="182"/>
       <c r="N2" s="182"/>
@@ -7162,14 +7162,14 @@
       <c r="BI2" s="182"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="268" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
       <c r="K3" s="182"/>
       <c r="L3" s="40"/>
       <c r="M3" s="182"/>
@@ -9345,12 +9345,12 @@
       <c r="BI34" s="182"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="262" t="s">
+      <c r="A35" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="263"/>
-      <c r="C35" s="263"/>
-      <c r="D35" s="264"/>
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="271"/>
       <c r="E35" s="50"/>
       <c r="F35" s="45"/>
       <c r="G35" s="62"/>
@@ -9410,12 +9410,12 @@
       <c r="BI35" s="182"/>
     </row>
     <row r="36" spans="1:61">
-      <c r="A36" s="266" t="s">
+      <c r="A36" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="268"/>
+      <c r="B36" s="274"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="275"/>
       <c r="E36" s="66">
         <f>F33-C113+K136</f>
         <v>0</v>
@@ -9681,16 +9681,16 @@
       <c r="BI39" s="182"/>
     </row>
     <row r="40" spans="1:61">
-      <c r="A40" s="284" t="s">
+      <c r="A40" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="285" t="s">
+      <c r="B40" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="286">
+      <c r="C40" s="236">
         <v>38960</v>
       </c>
-      <c r="D40" s="285" t="s">
+      <c r="D40" s="235" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="49"/>
@@ -9752,16 +9752,16 @@
       <c r="BI40" s="182"/>
     </row>
     <row r="41" spans="1:61">
-      <c r="A41" s="284" t="s">
+      <c r="A41" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="285" t="s">
+      <c r="B41" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="286">
+      <c r="C41" s="236">
         <v>17270</v>
       </c>
-      <c r="D41" s="285" t="s">
+      <c r="D41" s="235" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="70"/>
@@ -9823,14 +9823,14 @@
       <c r="BI41" s="182"/>
     </row>
     <row r="42" spans="1:61">
-      <c r="A42" s="287" t="s">
+      <c r="A42" s="237" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="288"/>
-      <c r="C42" s="286">
+      <c r="B42" s="238"/>
+      <c r="C42" s="236">
         <v>250000</v>
       </c>
-      <c r="D42" s="289"/>
+      <c r="D42" s="239"/>
       <c r="F42" s="41"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
@@ -9902,13 +9902,13 @@
         <v>81</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="265" t="s">
+      <c r="F43" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="265"/>
-      <c r="H43" s="265"/>
-      <c r="I43" s="265"/>
-      <c r="J43" s="265"/>
+      <c r="G43" s="272"/>
+      <c r="H43" s="272"/>
+      <c r="I43" s="272"/>
+      <c r="J43" s="272"/>
       <c r="K43" s="74"/>
       <c r="L43" s="42"/>
       <c r="M43" s="182"/>
@@ -10334,8 +10334,8 @@
       <c r="BI49" s="182"/>
     </row>
     <row r="50" spans="1:61">
-      <c r="A50" s="290"/>
-      <c r="B50" s="290"/>
+      <c r="A50" s="240"/>
+      <c r="B50" s="240"/>
       <c r="C50" s="79"/>
       <c r="D50" s="86"/>
       <c r="E50" s="49"/>
@@ -11098,10 +11098,10 @@
       <c r="C62" s="79"/>
       <c r="D62" s="86"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="253" t="s">
+      <c r="F62" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="253"/>
+      <c r="G62" s="260"/>
       <c r="H62" s="181"/>
       <c r="I62" s="181"/>
       <c r="J62" s="87" t="s">
@@ -14443,10 +14443,10 @@
       <c r="BI112" s="182"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="254" t="s">
+      <c r="A113" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="255"/>
+      <c r="B113" s="262"/>
       <c r="C113" s="102">
         <f>SUM(C37:C112)</f>
         <v>428770</v>
@@ -14578,10 +14578,10 @@
       <c r="BI114" s="182"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="256" t="s">
+      <c r="A115" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="257"/>
+      <c r="B115" s="264"/>
       <c r="C115" s="107">
         <f>C113+L136</f>
         <v>428770</v>
@@ -16499,8 +16499,8 @@
       <c r="N169" s="185"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="258"/>
-      <c r="G170" s="258"/>
+      <c r="F170" s="265"/>
+      <c r="G170" s="265"/>
       <c r="H170" s="182"/>
       <c r="I170" s="53"/>
       <c r="J170" s="40"/>
@@ -17160,7 +17160,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17180,35 +17180,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="278"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="280"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="287"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="274"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="281"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -17235,13 +17235,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="283"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="290"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
@@ -17737,13 +17737,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="275" t="s">
+      <c r="A18" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="276"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="276"/>
-      <c r="E18" s="277"/>
+      <c r="B18" s="283"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
+      <c r="E18" s="284"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="196"/>
